--- a/Practices/01.Clean-Code/StringCompress/Program_CheckList.xlsx
+++ b/Practices/01.Clean-Code/StringCompress/Program_CheckList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Backend Development\Documents\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Backend Development\Repository\Practices\01.Clean-Code\StringCompress\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Creterio</t>
   </si>
@@ -142,7 +142,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,6 +170,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -201,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -246,6 +252,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,6 +560,9 @@
       <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="13" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -562,6 +574,7 @@
       <c r="C2" s="3">
         <v>0.5</v>
       </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -573,6 +586,7 @@
       <c r="C3" s="10">
         <v>0.5</v>
       </c>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -584,6 +598,7 @@
       <c r="C4" s="3">
         <v>1.5</v>
       </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -595,6 +610,7 @@
       <c r="C5" s="17">
         <v>1</v>
       </c>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -603,10 +619,11 @@
       <c r="B6" s="3">
         <v>1.5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="19">
         <f>SUM(C10:C24)</f>
         <v>1.5000000000000002</v>
       </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
@@ -617,6 +634,7 @@
         <f>SUM(C2:C6)</f>
         <v>5</v>
       </c>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>

--- a/Practices/01.Clean-Code/StringCompress/Program_CheckList.xlsx
+++ b/Practices/01.Clean-Code/StringCompress/Program_CheckList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Backend Development\Documents\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Backend Development\Repository\Practices\01.Clean-Code\StringCompress\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>Creterio</t>
   </si>
@@ -108,6 +108,36 @@
   </si>
   <si>
     <t>Criterios de Codigo Limpio:Los Nombres de las variables y Funciones: (0.1/ cada una)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene Dos Warinigs </t>
+  </si>
+  <si>
+    <t>No muestra el resultado como se espera xxxxx =&gt; ssssss</t>
+  </si>
+  <si>
+    <t>Parcialmetne Entendible, Hay demasiado logica en la Funcion principal</t>
+  </si>
+  <si>
+    <t>Se cambio la Implementacion Inicial, La funcion no retornaba nada</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>str? stringBuild? Podria usar inputString o sbStringCompressed</t>
+  </si>
+  <si>
+    <t>stringCount? Se estan contando cadenas o caracteres de la cadenas countCharacter</t>
+  </si>
+  <si>
+    <t>prevChar =&gt; previousCharacter</t>
+  </si>
+  <si>
+    <t>Solo hay una unica funcion</t>
+  </si>
+  <si>
+    <t>La funcion comprime y retorna el valor y realiza las validaciones d excepcion</t>
   </si>
 </sst>
 </file>
@@ -117,7 +147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,8 +171,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,6 +208,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -201,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -246,12 +290,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -529,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,6 +628,9 @@
       <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="13" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -562,6 +642,9 @@
       <c r="C2" s="3">
         <v>0.5</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -570,8 +653,11 @@
       <c r="B3" s="10">
         <v>0.5</v>
       </c>
-      <c r="C3" s="10">
-        <v>0.5</v>
+      <c r="C3" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -581,8 +667,11 @@
       <c r="B4" s="3">
         <v>1.5</v>
       </c>
-      <c r="C4" s="3">
-        <v>1.5</v>
+      <c r="C4" s="20">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -593,7 +682,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="17">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -603,10 +695,11 @@
       <c r="B6" s="3">
         <v>1.5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="19">
         <f>SUM(C10:C24)</f>
-        <v>1.5000000000000002</v>
-      </c>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
@@ -615,8 +708,9 @@
       <c r="B7" s="15"/>
       <c r="C7" s="16">
         <f>SUM(C2:C6)</f>
-        <v>5</v>
-      </c>
+        <v>3.4</v>
+      </c>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
@@ -640,46 +734,52 @@
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>5</v>
+      <c r="B10" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="C10" s="3">
         <f>IF(B10="Si",0.1,0)</f>
-        <v>0.1</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>5</v>
+      <c r="B11" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" ref="C11:C24" si="0">IF(B11="Si",0.1,0)</f>
-        <v>0.1</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>5</v>
+      <c r="B12" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="5">
@@ -692,7 +792,7 @@
       <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="3">
@@ -705,7 +805,7 @@
       <c r="A15" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="5">
@@ -718,7 +818,7 @@
       <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="3">
@@ -731,7 +831,7 @@
       <c r="A17" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="5">
@@ -744,7 +844,7 @@
       <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="3">
@@ -757,7 +857,7 @@
       <c r="A19" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="5">
@@ -770,7 +870,7 @@
       <c r="A20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3">
@@ -783,33 +883,37 @@
       <c r="A21" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>5</v>
+      <c r="B21" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="D21" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>5</v>
+      <c r="B22" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="D22" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="5">
@@ -822,7 +926,7 @@
       <c r="A24" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="3">
@@ -832,6 +936,14 @@
       <c r="D24" s="2"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B10:B24">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Si"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B24">
       <formula1>"Si,No"</formula1>

--- a/Practices/01.Clean-Code/StringCompress/Program_CheckList.xlsx
+++ b/Practices/01.Clean-Code/StringCompress/Program_CheckList.xlsx
@@ -117,7 +117,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +137,14 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -207,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -254,13 +262,43 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -538,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +621,7 @@
       <c r="B3" s="10">
         <v>0.5</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="17">
         <v>0.5</v>
       </c>
       <c r="D3" s="11"/>
@@ -595,7 +633,7 @@
       <c r="B4" s="3">
         <v>1.5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="20">
         <v>1.5</v>
       </c>
       <c r="D4" s="2"/>
@@ -658,7 +696,7 @@
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="3">
@@ -671,7 +709,7 @@
       <c r="A11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="5">
@@ -684,7 +722,7 @@
       <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="3">
@@ -697,7 +735,7 @@
       <c r="A13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="5">
@@ -710,7 +748,7 @@
       <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="3">
@@ -723,7 +761,7 @@
       <c r="A15" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="5">
@@ -736,7 +774,7 @@
       <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="3">
@@ -749,7 +787,7 @@
       <c r="A17" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="5">
@@ -762,7 +800,7 @@
       <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="3">
@@ -775,7 +813,7 @@
       <c r="A19" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="5">
@@ -788,7 +826,7 @@
       <c r="A20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3">
@@ -801,7 +839,7 @@
       <c r="A21" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="5">
@@ -814,7 +852,7 @@
       <c r="A22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="3">
@@ -827,7 +865,7 @@
       <c r="A23" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="5">
@@ -840,7 +878,7 @@
       <c r="A24" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="3">
@@ -850,6 +888,14 @@
       <c r="D24" s="2"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B10:B24">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Si"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B24">
       <formula1>"Si,No"</formula1>

--- a/Practices/01.Clean-Code/StringCompress/Program_CheckList.xlsx
+++ b/Practices/01.Clean-Code/StringCompress/Program_CheckList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>Creterio</t>
   </si>
@@ -126,12 +126,6 @@
   </si>
   <si>
     <t>str? stringBuild? Podria usar inputString o sbStringCompressed</t>
-  </si>
-  <si>
-    <t>stringCount? Se estan contando cadenas o caracteres de la cadenas countCharacter</t>
-  </si>
-  <si>
-    <t>prevChar =&gt; previousCharacter</t>
   </si>
   <si>
     <t>Solo hay una unica funcion</t>
@@ -307,20 +301,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
       </font>
     </dxf>
     <dxf>
@@ -607,7 +591,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,7 +681,7 @@
       </c>
       <c r="C6" s="19">
         <f>SUM(C10:C24)</f>
-        <v>0.99999999999999989</v>
+        <v>1.2</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -708,7 +692,7 @@
       <c r="B7" s="15"/>
       <c r="C7" s="16">
         <f>SUM(C2:C6)</f>
-        <v>3.4</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="D7" s="15"/>
     </row>
@@ -750,30 +734,26 @@
         <v>12</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" ref="C11:C24" si="0">IF(B11="Si",0.1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>34</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
@@ -891,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -906,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -937,10 +917,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B10:B24">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Practices/01.Clean-Code/StringCompress/Program_CheckList.xlsx
+++ b/Practices/01.Clean-Code/StringCompress/Program_CheckList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Creterio</t>
   </si>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t>Criterios de Codigo Limpio:Los Nombres de las variables y Funciones: (0.1/ cada una)</t>
+  </si>
+  <si>
+    <t>No compila</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>No valida solo letras</t>
+  </si>
+  <si>
+    <t>Ok</t>
   </si>
 </sst>
 </file>
@@ -277,20 +289,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="2">
     <dxf>
       <font>
         <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
       </font>
     </dxf>
     <dxf>
@@ -577,7 +579,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,9 +612,11 @@
         <v>0.5</v>
       </c>
       <c r="C2" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -624,7 +628,9 @@
       <c r="C3" s="17">
         <v>0.5</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -634,9 +640,11 @@
         <v>1.5</v>
       </c>
       <c r="C4" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -648,7 +656,9 @@
       <c r="C5" s="17">
         <v>1</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -670,7 +680,7 @@
       <c r="B7" s="15"/>
       <c r="C7" s="16">
         <f>SUM(C2:C6)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="15"/>
     </row>
